--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 44</t>
+    <t>Акт № 14-23 / 48</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>МОЛ2</t>
+    <t>Олейников В.Ф.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -91,13 +91,10 @@
     <t>были установлены следующие материальные ценности:</t>
   </si>
   <si>
-    <t>Жесткий диск Canon WD BLUE 2563</t>
-  </si>
-  <si>
-    <t>6767567</t>
-  </si>
-  <si>
-    <t>777777</t>
+    <t>Картридж Kingston 250x TTT Cart</t>
+  </si>
+  <si>
+    <t>3453333</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -517,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I14" sqref="I14"/>
@@ -770,39 +767,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>2</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="C30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
@@ -810,17 +796,17 @@
       </c>
       <c r="C31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H32" s="10"/>
     </row>
@@ -830,17 +816,17 @@
       </c>
       <c r="C33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -850,17 +836,17 @@
       </c>
       <c r="C35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H36" s="10"/>
     </row>
@@ -870,22 +856,12 @@
       </c>
       <c r="C37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="G38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="45">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -914,10 +890,9 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="B32:C32"/>
@@ -932,8 +907,6 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 48</t>
+    <t>Акт № 14-23 / 49</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Олейников В.Ф.</t>
+    <t>Котлован А.Г.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -79,10 +79,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Принтер Canon asd</t>
-  </si>
-  <si>
-    <t>354354</t>
+    <t>Принтер Canon Test Cannon1</t>
+  </si>
+  <si>
+    <t>56456</t>
   </si>
   <si>
     <t>шт</t>
@@ -91,10 +91,10 @@
     <t>были установлены следующие материальные ценности:</t>
   </si>
   <si>
-    <t>Картридж Kingston 250x TTT Cart</t>
-  </si>
-  <si>
-    <t>3453333</t>
+    <t>Картридж Kingston 250X 35 Kart</t>
+  </si>
+  <si>
+    <t>434222</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="31">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 49</t>
+    <t>Акт № 14-23 / 50</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Котлован А.Г.</t>
+    <t>Денисенко А.Г.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -79,10 +79,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Принтер Canon Test Cannon1</t>
-  </si>
-  <si>
-    <t>56456</t>
+    <t>Принтер Canon asd2</t>
+  </si>
+  <si>
+    <t>123123213</t>
   </si>
   <si>
     <t>шт</t>
@@ -91,10 +91,10 @@
     <t>были установлены следующие материальные ценности:</t>
   </si>
   <si>
-    <t>Картридж Kingston 250X 35 Kart</t>
-  </si>
-  <si>
-    <t>434222</t>
+    <t>Жесткий диск Canon WD BLUE 2563</t>
+  </si>
+  <si>
+    <t>1123123</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -514,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I14" sqref="I14"/>
@@ -767,101 +767,752 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>6</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>7</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>8</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>9</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>10</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>11</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>12</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>13</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>14</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>15</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>16</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>17</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>18</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>19</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>20</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>21</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>22</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>23</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>24</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>25</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>26</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="B51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
         <v>28</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="G30" s="10" t="s">
+      <c r="B52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>29</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>30</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>31</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>32</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="C61" s="10"/>
+      <c r="G61" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="C62" s="10"/>
+      <c r="G62" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="G32" s="10" t="s">
+      <c r="C63" s="10"/>
+      <c r="G63" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="G33" s="10" t="s">
+      <c r="C64" s="10"/>
+      <c r="G64" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="G34" s="10" t="s">
+      <c r="C65" s="10"/>
+      <c r="G65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="G35" s="10" t="s">
+      <c r="C66" s="10"/>
+      <c r="G66" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="G36" s="10" t="s">
+      <c r="C67" s="10"/>
+      <c r="G67" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="G37" s="10" t="s">
+      <c r="C68" s="10"/>
+      <c r="G68" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H68" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="138">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -890,23 +1541,116 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="G68:H68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 52</t>
+    <t>Акт № 14-23 / 57</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -79,25 +79,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>Принтер Canon Test Cannon1</t>
-  </si>
-  <si>
-    <t>24234324</t>
+    <t>Жесткий диск Canon WD BLUE 2563</t>
+  </si>
+  <si>
+    <t>6767567</t>
   </si>
   <si>
     <t>шт</t>
   </si>
   <si>
     <t>были установлены следующие материальные ценности:</t>
-  </si>
-  <si>
-    <t>Жесткий диск Canon WD BLUE 2563</t>
-  </si>
-  <si>
-    <t>6767567</t>
-  </si>
-  <si>
-    <t>777777</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -517,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I14" sqref="I14"/>
@@ -754,12 +745,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
@@ -770,122 +761,101 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>2</v>
-      </c>
-      <c r="B26" s="9" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="G38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="45">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -914,10 +884,9 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="B32:C32"/>
@@ -932,8 +901,6 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 57</t>
+    <t>Акт № 14-23 / 92</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>были установлены следующие материальные ценности:</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>777777</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I14" sqref="I14"/>
@@ -761,52 +767,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="G30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="G31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="G32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="10"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" s="10"/>
       <c r="G33" s="10" t="s">
@@ -816,17 +855,17 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="10"/>
       <c r="G35" s="10" t="s">
@@ -836,17 +875,17 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" s="10"/>
       <c r="G37" s="10" t="s">
@@ -854,8 +893,38 @@
       </c>
       <c r="H37" s="10"/>
     </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="54">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -884,13 +953,16 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="B34:C34"/>
@@ -901,6 +973,12 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 92</t>
+    <t>Акт № 14-23 / 98</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Олейников В.Ф.</t>
+    <t>Денисенко А.Г.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -82,19 +82,13 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
-    <t>6767567</t>
+    <t>asdasd</t>
   </si>
   <si>
     <t>шт</t>
   </si>
   <si>
     <t>были установлены следующие материальные ценности:</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>777777</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -514,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I14" sqref="I14"/>
@@ -777,7 +771,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
@@ -788,143 +782,101 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>3</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>4</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="C32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="G39" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="48">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -956,13 +908,11 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="B34:C34"/>
@@ -975,10 +925,6 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 92</t>
+    <t>Акт № 14-23 / 93</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -82,19 +82,19 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
+    <t>777777</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>были установлены следующие материальные ценности:</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
     <t>6767567</t>
-  </si>
-  <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>были установлены следующие материальные ценности:</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>777777</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 93</t>
+    <t>Акт № 14-23 / 99</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -82,19 +82,19 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
+    <t>6767567</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>были установлены следующие материальные ценности:</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
     <t>777777</t>
-  </si>
-  <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>были установлены следующие материальные ценности:</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>6767567</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 99</t>
+    <t>Акт № 14-23 / 100</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 57</t>
+    <t>Акт № 14-23 / 93</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Олейников В.Ф.</t>
+    <t>Денисенко А.Г.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -82,7 +82,7 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
-    <t>6767567</t>
+    <t>asdasd</t>
   </si>
   <si>
     <t>шт</t>
@@ -508,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I14" sqref="I14"/>
@@ -761,101 +761,122 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="G30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="10"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="10"/>
       <c r="G37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="G38" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H38" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="48">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -884,9 +905,10 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="B32:C32"/>
@@ -901,6 +923,8 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 100</t>
+    <t>Акт № 14-23 / 102</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Олейников В.Ф.</t>
+    <t>Денисенко А.Г.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -79,22 +79,22 @@
     <t>1</t>
   </si>
   <si>
+    <t>Принтер Canon Test Cannon1</t>
+  </si>
+  <si>
+    <t>asd1313</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>были установлены следующие материальные ценности:</t>
+  </si>
+  <si>
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
-    <t>6767567</t>
-  </si>
-  <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>были установлены следующие материальные ценности:</t>
-  </si>
-  <si>
     <t>asdasd</t>
-  </si>
-  <si>
-    <t>777777</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -514,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I14" sqref="I14"/>
@@ -751,12 +751,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
@@ -767,164 +767,101 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>2</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>3</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>4</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="G38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="G39" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="45">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -953,16 +890,13 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="B34:C34"/>
@@ -973,12 +907,6 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 102</t>
+    <t>Акт № 14-23 / 103</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Денисенко А.Г.</t>
+    <t>Олейников В.Ф.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -82,7 +82,7 @@
     <t>Принтер Canon Test Cannon1</t>
   </si>
   <si>
-    <t>asd1313</t>
+    <t>24234324</t>
   </si>
   <si>
     <t>шт</t>
@@ -94,7 +94,13 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
+    <t>6767567</t>
+  </si>
+  <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>777777</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I14" sqref="I14"/>
@@ -767,52 +773,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="G30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="G31" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="G32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="10"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="10"/>
       <c r="G33" s="10" t="s">
@@ -822,17 +861,17 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="10"/>
       <c r="G35" s="10" t="s">
@@ -842,17 +881,17 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="10"/>
       <c r="G37" s="10" t="s">
@@ -860,8 +899,38 @@
       </c>
       <c r="H37" s="10"/>
     </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="54">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -890,13 +959,16 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="B34:C34"/>
@@ -907,6 +979,12 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 93</t>
+    <t>Акт № 14-23 / 94</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Денисенко А.Г.</t>
+    <t>Олейников В.Ф.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -79,16 +79,28 @@
     <t>1</t>
   </si>
   <si>
+    <t>Принтер Canon Test Cannon1</t>
+  </si>
+  <si>
+    <t>24234324</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>были установлены следующие материальные ценности:</t>
+  </si>
+  <si>
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
+    <t>777777</t>
+  </si>
+  <si>
     <t>asdasd</t>
   </si>
   <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>были установлены следующие материальные ценности:</t>
+    <t>6767567</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -508,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I14" sqref="I14"/>
@@ -745,12 +757,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
@@ -766,12 +778,12 @@
         <v>2</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
@@ -782,101 +794,143 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="G31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="G32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="10"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H38" s="10"/>
     </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="54">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -908,11 +962,13 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="B34:C34"/>
@@ -925,6 +981,10 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 103</t>
+    <t>Акт № 14-23 / 108</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Олейников В.Ф.</t>
+    <t>Денисенко А.Г.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -82,7 +82,7 @@
     <t>Принтер Canon Test Cannon1</t>
   </si>
   <si>
-    <t>24234324</t>
+    <t>asd1313</t>
   </si>
   <si>
     <t>шт</t>
@@ -94,13 +94,10 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
-    <t>6767567</t>
-  </si>
-  <si>
     <t>asdasd</t>
   </si>
   <si>
-    <t>777777</t>
+    <t>3123123</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -520,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I14" sqref="I14"/>
@@ -769,8 +766,8 @@
         <v>23</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
-        <v>20</v>
+      <c r="I25" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -790,147 +787,105 @@
         <v>23</v>
       </c>
       <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>3</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>4</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="I26" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="C31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="G39" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="48">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -962,13 +917,11 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="B34:C34"/>
@@ -981,10 +934,6 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 108</t>
+    <t>Акт № 14-23 / 109</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -788,7 +788,7 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 109</t>
+    <t>Акт № 14-23 / 111</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -788,7 +788,7 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 111</t>
+    <t>Акт № 14-23 / 112</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -79,10 +79,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Принтер Canon Test Cannon1</t>
-  </si>
-  <si>
-    <t>asd1313</t>
+    <t>Принтер Canon FFAD23ASD</t>
+  </si>
+  <si>
+    <t>sadsad</t>
   </si>
   <si>
     <t>шт</t>
@@ -94,10 +94,10 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
+    <t>3123123</t>
+  </si>
+  <si>
     <t>asdasd</t>
-  </si>
-  <si>
-    <t>3123123</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -787,9 +787,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="9"/>
-      <c r="I26" s="9">
-        <v>2</v>
-      </c>
+      <c r="I26" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">

--- a/backend/docs/test10.xlsx
+++ b/backend/docs/test10.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-23 / 112</t>
+    <t>Акт № 14-23 / 116</t>
   </si>
   <si>
     <t>об установке материальных ценностей.</t>
@@ -79,10 +79,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Принтер Canon FFAD23ASD</t>
-  </si>
-  <si>
-    <t>sadsad</t>
+    <t>Принтер Canon Test Cannon1</t>
+  </si>
+  <si>
+    <t>asd1313</t>
   </si>
   <si>
     <t>шт</t>
@@ -94,10 +94,10 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
+    <t>asdasd</t>
+  </si>
+  <si>
     <t>3123123</t>
-  </si>
-  <si>
-    <t>asdasd</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -787,7 +787,9 @@
         <v>23</v>
       </c>
       <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
